--- a/xlsx/史提芬·荷伯_intext.xlsx
+++ b/xlsx/史提芬·荷伯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>史提芬·荷伯</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_史提芬·荷伯</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_史提芬·荷伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E5%A0%B4_(%E8%97%9D%E8%A1%93)</t>
   </si>
   <si>
-    <t>劇場 (藝術)</t>
+    <t>剧场 (艺术)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國保守主義</t>
+    <t>美国保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8F%B3%E6%B4%BE</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BA%8B%E8%A9%95%E8%AB%96%E5%93%A1</t>
   </si>
   <si>
-    <t>時事評論員</t>
+    <t>时事评论员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E6%96%87%E5%8C%96</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%AA%92%E4%BD%93</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%8D%A1%E6%9E%97</t>
   </si>
   <si>
-    <t>喬治·卡林</t>
+    <t>乔治·卡林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%AE%89%C2%B7%E9%A9%AC%E4%B8%81</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E5%A5%A7%E8%B3%B4%E5%88%A9</t>
   </si>
   <si>
-    <t>比爾·奧賴利</t>
+    <t>比尔·奥赖利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E5%A5%96</t>
@@ -179,19 +179,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>格林美獎</t>
+    <t>格林美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%AF%80%E7%9B%AE%E4%B8%BB%E6%8C%81%E4%BA%BA</t>
   </si>
   <si>
-    <t>電視節目主持人</t>
+    <t>电视节目主持人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%89%A7</t>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%8A%87%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>喜劇中心</t>
+    <t>喜剧中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%AF%80%E7%9B%AE</t>
   </si>
   <si>
-    <t>新聞節目</t>
+    <t>新闻节目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%AA%E7%8D%B8%E5%A4%A7%E6%88%B0%E5%A4%96%E6%98%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>怪獸大戰外星人</t>
+    <t>怪兽大战外星人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E6%AD%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>跑步機</t>
+    <t>跑步机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E7%8E%B0%E5%8F%B7%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1612,7 +1609,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
@@ -1638,10 +1635,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1667,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1696,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -1725,10 +1722,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1754,10 +1751,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1783,10 +1780,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1812,10 +1809,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1841,10 +1838,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -1870,10 +1867,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1899,10 +1896,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1928,10 +1925,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1957,10 +1954,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1986,10 +1983,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
         <v>65</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2015,10 +2012,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2044,10 +2041,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2073,10 +2070,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2102,10 +2099,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2131,10 +2128,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2160,10 +2157,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2189,10 +2186,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2218,10 +2215,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2247,10 +2244,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2276,10 +2273,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2305,10 +2302,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2334,10 +2331,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -2363,10 +2360,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -2392,10 +2389,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -2421,10 +2418,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2450,10 +2447,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2479,10 +2476,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2508,10 +2505,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2537,10 +2534,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2566,10 +2563,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2595,10 +2592,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2624,10 +2621,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2653,10 +2650,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -2682,10 +2679,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2711,10 +2708,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -2740,10 +2737,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -2769,10 +2766,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2798,10 +2795,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2827,10 +2824,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2856,10 +2853,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2885,10 +2882,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2914,10 +2911,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2943,10 +2940,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -2972,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
